--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1ADBB-493A-9F4D-A6C3-DBBE1BECC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
     <sheet name="PorProducto" sheetId="2" r:id="rId2"/>
     <sheet name="PorRelave" sheetId="3" r:id="rId3"/>
+    <sheet name="Demanda" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Parámetro</t>
   </si>
@@ -49,9 +69,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>mu</t>
   </si>
   <si>
     <t>N</t>
@@ -108,12 +125,6 @@
     <t>u (US$/ton)</t>
   </si>
   <si>
-    <t>c (US$/ton)</t>
-  </si>
-  <si>
-    <t>m (US$/ton·día)</t>
-  </si>
-  <si>
     <t>n (m³/ton)</t>
   </si>
   <si>
@@ -138,17 +149,32 @@
     <t>I0 (m³)</t>
   </si>
   <si>
-    <t>C (US$/m³)</t>
+    <t>m</t>
   </si>
   <si>
-    <t>Activación fija (US$)</t>
+    <t>Cp (US$/ton)</t>
+  </si>
+  <si>
+    <t>Ca (US$/ton·día)</t>
+  </si>
+  <si>
+    <t>Cv (US$/m³)</t>
+  </si>
+  <si>
+    <t>Cf (US$)</t>
+  </si>
+  <si>
+    <t>IM0 (ton)</t>
+  </si>
+  <si>
+    <t>Día/Producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +237,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +289,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -289,6 +323,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -323,9 +358,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,14 +534,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="169" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,122 +559,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>6000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4290000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1000000</v>
@@ -639,50 +682,68 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -690,7 +751,7 @@
         <v>116.9</v>
       </c>
       <c r="C2">
-        <v>0.0756</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="D2">
         <v>11002</v>
@@ -699,22 +760,25 @@
         <v>11002</v>
       </c>
       <c r="F2">
-        <v>4585.6</v>
+        <v>4585.6000000000004</v>
       </c>
       <c r="G2">
-        <v>0.001392</v>
+        <v>1.392E-3</v>
       </c>
       <c r="H2">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>784.9</v>
       </c>
       <c r="J2">
         <v>1569.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -722,7 +786,7 @@
         <v>28.6</v>
       </c>
       <c r="C3">
-        <v>0.0017</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D3">
         <v>105.56</v>
@@ -734,16 +798,19 @@
         <v>50.9</v>
       </c>
       <c r="G3">
-        <v>0.03104</v>
+        <v>3.1040000000000002E-2</v>
       </c>
       <c r="H3">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3534.34</v>
       </c>
       <c r="J3">
         <v>7068.68</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,28 +819,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>40</v>
@@ -782,7 +859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -796,21 +873,21 @@
         <v>1643000000</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1363690000</v>
       </c>
       <c r="F2">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G2">
-        <v>69.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
         <v>136272</v>
@@ -819,13 +896,4420 @@
         <v>790000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>655700</v>
       </c>
       <c r="F3">
         <v>10.9</v>
       </c>
       <c r="G3">
-        <v>69.90000000000001</v>
+        <v>75.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
+  <dimension ref="A1:C366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1800</v>
+      </c>
+      <c r="C2">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1800</v>
+      </c>
+      <c r="C3">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1800</v>
+      </c>
+      <c r="C4">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1800</v>
+      </c>
+      <c r="C5">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" ref="A6:A69" si="0">A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1800</v>
+      </c>
+      <c r="C6">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1800</v>
+      </c>
+      <c r="C7">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1800</v>
+      </c>
+      <c r="C8">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1800</v>
+      </c>
+      <c r="C9">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1800</v>
+      </c>
+      <c r="C10">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1800</v>
+      </c>
+      <c r="C11">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="C12">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1800</v>
+      </c>
+      <c r="C13">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1800</v>
+      </c>
+      <c r="C14">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1800</v>
+      </c>
+      <c r="C15">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1800</v>
+      </c>
+      <c r="C16">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1800</v>
+      </c>
+      <c r="C17">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1800</v>
+      </c>
+      <c r="C18">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1800</v>
+      </c>
+      <c r="C19">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1800</v>
+      </c>
+      <c r="C20">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1800</v>
+      </c>
+      <c r="C21">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1800</v>
+      </c>
+      <c r="C22">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1800</v>
+      </c>
+      <c r="C23">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1800</v>
+      </c>
+      <c r="C24">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1800</v>
+      </c>
+      <c r="C25">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1800</v>
+      </c>
+      <c r="C26">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1800</v>
+      </c>
+      <c r="C27">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1800</v>
+      </c>
+      <c r="C28">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1800</v>
+      </c>
+      <c r="C29">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1800</v>
+      </c>
+      <c r="C30">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1800</v>
+      </c>
+      <c r="C31">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1800</v>
+      </c>
+      <c r="C32">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1800</v>
+      </c>
+      <c r="C33">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1800</v>
+      </c>
+      <c r="C34">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1800</v>
+      </c>
+      <c r="C35">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1800</v>
+      </c>
+      <c r="C36">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1800</v>
+      </c>
+      <c r="C37">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1800</v>
+      </c>
+      <c r="C38">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1800</v>
+      </c>
+      <c r="C39">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1800</v>
+      </c>
+      <c r="C40">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1800</v>
+      </c>
+      <c r="C41">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1800</v>
+      </c>
+      <c r="C42">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1800</v>
+      </c>
+      <c r="C43">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1800</v>
+      </c>
+      <c r="C44">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1800</v>
+      </c>
+      <c r="C45">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1800</v>
+      </c>
+      <c r="C46">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1800</v>
+      </c>
+      <c r="C47">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1800</v>
+      </c>
+      <c r="C48">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1800</v>
+      </c>
+      <c r="C49">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1800</v>
+      </c>
+      <c r="C50">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1800</v>
+      </c>
+      <c r="C51">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1800</v>
+      </c>
+      <c r="C52">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1800</v>
+      </c>
+      <c r="C53">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1800</v>
+      </c>
+      <c r="C54">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1800</v>
+      </c>
+      <c r="C55">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1800</v>
+      </c>
+      <c r="C56">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1800</v>
+      </c>
+      <c r="C57">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1800</v>
+      </c>
+      <c r="C58">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1800</v>
+      </c>
+      <c r="C59">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1800</v>
+      </c>
+      <c r="C60">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1800</v>
+      </c>
+      <c r="C61">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1800</v>
+      </c>
+      <c r="C62">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1800</v>
+      </c>
+      <c r="C63">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1800</v>
+      </c>
+      <c r="C64">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1800</v>
+      </c>
+      <c r="C65">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1800</v>
+      </c>
+      <c r="C66">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1800</v>
+      </c>
+      <c r="C67">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1800</v>
+      </c>
+      <c r="C68">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1800</v>
+      </c>
+      <c r="C69">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" ref="A70:A133" si="1">A69+1</f>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1800</v>
+      </c>
+      <c r="C70">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1800</v>
+      </c>
+      <c r="C71">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1800</v>
+      </c>
+      <c r="C72">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1800</v>
+      </c>
+      <c r="C73">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1800</v>
+      </c>
+      <c r="C74">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1800</v>
+      </c>
+      <c r="C75">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1800</v>
+      </c>
+      <c r="C76">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1800</v>
+      </c>
+      <c r="C77">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1800</v>
+      </c>
+      <c r="C78">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1800</v>
+      </c>
+      <c r="C79">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1800</v>
+      </c>
+      <c r="C80">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1800</v>
+      </c>
+      <c r="C81">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1800</v>
+      </c>
+      <c r="C82">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1800</v>
+      </c>
+      <c r="C83">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1800</v>
+      </c>
+      <c r="C84">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1800</v>
+      </c>
+      <c r="C85">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1800</v>
+      </c>
+      <c r="C86">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1800</v>
+      </c>
+      <c r="C87">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1800</v>
+      </c>
+      <c r="C88">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1800</v>
+      </c>
+      <c r="C89">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1800</v>
+      </c>
+      <c r="C90">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1800</v>
+      </c>
+      <c r="C91">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1800</v>
+      </c>
+      <c r="C92">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1800</v>
+      </c>
+      <c r="C93">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1800</v>
+      </c>
+      <c r="C94">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1800</v>
+      </c>
+      <c r="C95">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1800</v>
+      </c>
+      <c r="C96">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1800</v>
+      </c>
+      <c r="C97">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1800</v>
+      </c>
+      <c r="C98">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1800</v>
+      </c>
+      <c r="C99">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1800</v>
+      </c>
+      <c r="C100">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1800</v>
+      </c>
+      <c r="C101">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1800</v>
+      </c>
+      <c r="C102">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1800</v>
+      </c>
+      <c r="C103">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1800</v>
+      </c>
+      <c r="C104">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1800</v>
+      </c>
+      <c r="C105">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1800</v>
+      </c>
+      <c r="C106">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1800</v>
+      </c>
+      <c r="C107">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1800</v>
+      </c>
+      <c r="C108">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1800</v>
+      </c>
+      <c r="C109">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1800</v>
+      </c>
+      <c r="C110">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1800</v>
+      </c>
+      <c r="C111">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1800</v>
+      </c>
+      <c r="C112">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1800</v>
+      </c>
+      <c r="C113">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1800</v>
+      </c>
+      <c r="C114">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1800</v>
+      </c>
+      <c r="C115">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1800</v>
+      </c>
+      <c r="C116">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1800</v>
+      </c>
+      <c r="C117">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1800</v>
+      </c>
+      <c r="C118">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1800</v>
+      </c>
+      <c r="C119">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1800</v>
+      </c>
+      <c r="C120">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1800</v>
+      </c>
+      <c r="C121">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1800</v>
+      </c>
+      <c r="C122">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1800</v>
+      </c>
+      <c r="C123">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1800</v>
+      </c>
+      <c r="C124">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1800</v>
+      </c>
+      <c r="C125">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1800</v>
+      </c>
+      <c r="C126">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1800</v>
+      </c>
+      <c r="C127">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1800</v>
+      </c>
+      <c r="C128">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1800</v>
+      </c>
+      <c r="C129">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1800</v>
+      </c>
+      <c r="C130">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1800</v>
+      </c>
+      <c r="C131">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1800</v>
+      </c>
+      <c r="C132">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1800</v>
+      </c>
+      <c r="C133">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <f t="shared" ref="A134:A197" si="2">A133+1</f>
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1800</v>
+      </c>
+      <c r="C134">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1800</v>
+      </c>
+      <c r="C135">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1800</v>
+      </c>
+      <c r="C136">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1800</v>
+      </c>
+      <c r="C137">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1800</v>
+      </c>
+      <c r="C138">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1800</v>
+      </c>
+      <c r="C139">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1800</v>
+      </c>
+      <c r="C140">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1800</v>
+      </c>
+      <c r="C141">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1800</v>
+      </c>
+      <c r="C142">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1800</v>
+      </c>
+      <c r="C143">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1800</v>
+      </c>
+      <c r="C144">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1800</v>
+      </c>
+      <c r="C145">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1800</v>
+      </c>
+      <c r="C146">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1800</v>
+      </c>
+      <c r="C147">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1800</v>
+      </c>
+      <c r="C148">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1800</v>
+      </c>
+      <c r="C149">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1800</v>
+      </c>
+      <c r="C150">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1800</v>
+      </c>
+      <c r="C151">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1800</v>
+      </c>
+      <c r="C152">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1800</v>
+      </c>
+      <c r="C153">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1800</v>
+      </c>
+      <c r="C154">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1800</v>
+      </c>
+      <c r="C155">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1800</v>
+      </c>
+      <c r="C156">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1800</v>
+      </c>
+      <c r="C157">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1800</v>
+      </c>
+      <c r="C158">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1800</v>
+      </c>
+      <c r="C159">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1800</v>
+      </c>
+      <c r="C160">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1800</v>
+      </c>
+      <c r="C161">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1800</v>
+      </c>
+      <c r="C162">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1800</v>
+      </c>
+      <c r="C163">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1800</v>
+      </c>
+      <c r="C164">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1800</v>
+      </c>
+      <c r="C165">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1800</v>
+      </c>
+      <c r="C166">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1800</v>
+      </c>
+      <c r="C167">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1800</v>
+      </c>
+      <c r="C168">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1800</v>
+      </c>
+      <c r="C169">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1800</v>
+      </c>
+      <c r="C170">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1800</v>
+      </c>
+      <c r="C171">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1800</v>
+      </c>
+      <c r="C172">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1800</v>
+      </c>
+      <c r="C173">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1800</v>
+      </c>
+      <c r="C174">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1800</v>
+      </c>
+      <c r="C175">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1800</v>
+      </c>
+      <c r="C176">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1800</v>
+      </c>
+      <c r="C177">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1800</v>
+      </c>
+      <c r="C178">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1800</v>
+      </c>
+      <c r="C179">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1800</v>
+      </c>
+      <c r="C180">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1800</v>
+      </c>
+      <c r="C181">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>1800</v>
+      </c>
+      <c r="C182">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>1800</v>
+      </c>
+      <c r="C183">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>1800</v>
+      </c>
+      <c r="C184">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1800</v>
+      </c>
+      <c r="C185">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>1800</v>
+      </c>
+      <c r="C186">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>1800</v>
+      </c>
+      <c r="C187">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>1800</v>
+      </c>
+      <c r="C188">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>1800</v>
+      </c>
+      <c r="C189">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>1800</v>
+      </c>
+      <c r="C190">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>1800</v>
+      </c>
+      <c r="C191">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>1800</v>
+      </c>
+      <c r="C192">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>1800</v>
+      </c>
+      <c r="C193">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>1800</v>
+      </c>
+      <c r="C194">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>1800</v>
+      </c>
+      <c r="C195">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>1800</v>
+      </c>
+      <c r="C196">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>1800</v>
+      </c>
+      <c r="C197">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" ref="A198:A261" si="3">A197+1</f>
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>1800</v>
+      </c>
+      <c r="C198">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>1800</v>
+      </c>
+      <c r="C199">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>1800</v>
+      </c>
+      <c r="C200">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1800</v>
+      </c>
+      <c r="C201">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>1800</v>
+      </c>
+      <c r="C202">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>1800</v>
+      </c>
+      <c r="C203">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>1800</v>
+      </c>
+      <c r="C204">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>1800</v>
+      </c>
+      <c r="C205">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>1800</v>
+      </c>
+      <c r="C206">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>1800</v>
+      </c>
+      <c r="C207">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>1800</v>
+      </c>
+      <c r="C208">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>1800</v>
+      </c>
+      <c r="C209">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>1800</v>
+      </c>
+      <c r="C210">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>1800</v>
+      </c>
+      <c r="C211">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>1800</v>
+      </c>
+      <c r="C212">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>1800</v>
+      </c>
+      <c r="C213">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>1800</v>
+      </c>
+      <c r="C214">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>1800</v>
+      </c>
+      <c r="C215">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>1800</v>
+      </c>
+      <c r="C216">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>1800</v>
+      </c>
+      <c r="C217">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>1800</v>
+      </c>
+      <c r="C218">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>1800</v>
+      </c>
+      <c r="C219">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>1800</v>
+      </c>
+      <c r="C220">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>1800</v>
+      </c>
+      <c r="C221">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>1800</v>
+      </c>
+      <c r="C222">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>1800</v>
+      </c>
+      <c r="C223">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>1800</v>
+      </c>
+      <c r="C224">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>1800</v>
+      </c>
+      <c r="C225">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>1800</v>
+      </c>
+      <c r="C226">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>1800</v>
+      </c>
+      <c r="C227">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>1800</v>
+      </c>
+      <c r="C228">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>1800</v>
+      </c>
+      <c r="C229">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>1800</v>
+      </c>
+      <c r="C230">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>1800</v>
+      </c>
+      <c r="C231">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>1800</v>
+      </c>
+      <c r="C232">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>1800</v>
+      </c>
+      <c r="C233">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>1800</v>
+      </c>
+      <c r="C234">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>1800</v>
+      </c>
+      <c r="C235">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>1800</v>
+      </c>
+      <c r="C236">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>1800</v>
+      </c>
+      <c r="C237">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>1800</v>
+      </c>
+      <c r="C238">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1800</v>
+      </c>
+      <c r="C239">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>1800</v>
+      </c>
+      <c r="C240">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>1800</v>
+      </c>
+      <c r="C241">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>1800</v>
+      </c>
+      <c r="C242">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>1800</v>
+      </c>
+      <c r="C243">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>1800</v>
+      </c>
+      <c r="C244">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>1800</v>
+      </c>
+      <c r="C245">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>1800</v>
+      </c>
+      <c r="C246">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>1800</v>
+      </c>
+      <c r="C247">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>1800</v>
+      </c>
+      <c r="C248">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>1800</v>
+      </c>
+      <c r="C249">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>1800</v>
+      </c>
+      <c r="C250">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>1800</v>
+      </c>
+      <c r="C251">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>1800</v>
+      </c>
+      <c r="C252">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>1800</v>
+      </c>
+      <c r="C253">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>1800</v>
+      </c>
+      <c r="C254">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>1800</v>
+      </c>
+      <c r="C255">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>1800</v>
+      </c>
+      <c r="C256">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>1800</v>
+      </c>
+      <c r="C257">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>1800</v>
+      </c>
+      <c r="C258">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>1800</v>
+      </c>
+      <c r="C259">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" si="3"/>
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>1800</v>
+      </c>
+      <c r="C260">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>1800</v>
+      </c>
+      <c r="C261">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" ref="A262:A325" si="4">A261+1</f>
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>1800</v>
+      </c>
+      <c r="C262">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>1800</v>
+      </c>
+      <c r="C263">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>1800</v>
+      </c>
+      <c r="C264">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>1800</v>
+      </c>
+      <c r="C265">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>1800</v>
+      </c>
+      <c r="C266">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>1800</v>
+      </c>
+      <c r="C267">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>1800</v>
+      </c>
+      <c r="C268">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>1800</v>
+      </c>
+      <c r="C269">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>1800</v>
+      </c>
+      <c r="C270">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>1800</v>
+      </c>
+      <c r="C271">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>1800</v>
+      </c>
+      <c r="C272">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>1800</v>
+      </c>
+      <c r="C273">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>1800</v>
+      </c>
+      <c r="C274">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>1800</v>
+      </c>
+      <c r="C275">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>1800</v>
+      </c>
+      <c r="C276">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>1800</v>
+      </c>
+      <c r="C277">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>1800</v>
+      </c>
+      <c r="C278">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>1800</v>
+      </c>
+      <c r="C279">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>1800</v>
+      </c>
+      <c r="C280">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>1800</v>
+      </c>
+      <c r="C281">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>1800</v>
+      </c>
+      <c r="C282">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>1800</v>
+      </c>
+      <c r="C283">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1800</v>
+      </c>
+      <c r="C284">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1800</v>
+      </c>
+      <c r="C285">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>1800</v>
+      </c>
+      <c r="C286">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>1800</v>
+      </c>
+      <c r="C287">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>1800</v>
+      </c>
+      <c r="C288">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>1800</v>
+      </c>
+      <c r="C289">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>1800</v>
+      </c>
+      <c r="C290">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>1800</v>
+      </c>
+      <c r="C291">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>1800</v>
+      </c>
+      <c r="C292">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>1800</v>
+      </c>
+      <c r="C293">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>1800</v>
+      </c>
+      <c r="C294">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>1800</v>
+      </c>
+      <c r="C295">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>1800</v>
+      </c>
+      <c r="C296">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>1800</v>
+      </c>
+      <c r="C297">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>1800</v>
+      </c>
+      <c r="C298">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>1800</v>
+      </c>
+      <c r="C299">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>1800</v>
+      </c>
+      <c r="C300">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1800</v>
+      </c>
+      <c r="C301">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>1800</v>
+      </c>
+      <c r="C302">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>1800</v>
+      </c>
+      <c r="C303">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>1800</v>
+      </c>
+      <c r="C304">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>1800</v>
+      </c>
+      <c r="C305">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>1800</v>
+      </c>
+      <c r="C306">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>1800</v>
+      </c>
+      <c r="C307">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>1800</v>
+      </c>
+      <c r="C308">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>1800</v>
+      </c>
+      <c r="C309">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>1800</v>
+      </c>
+      <c r="C310">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>1800</v>
+      </c>
+      <c r="C311">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>1800</v>
+      </c>
+      <c r="C312">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>1800</v>
+      </c>
+      <c r="C313">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>1800</v>
+      </c>
+      <c r="C314">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>1800</v>
+      </c>
+      <c r="C315">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>1800</v>
+      </c>
+      <c r="C316">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>1800</v>
+      </c>
+      <c r="C317">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>1800</v>
+      </c>
+      <c r="C318">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>1800</v>
+      </c>
+      <c r="C319">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>1800</v>
+      </c>
+      <c r="C320">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>1800</v>
+      </c>
+      <c r="C321">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>1800</v>
+      </c>
+      <c r="C322">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>1800</v>
+      </c>
+      <c r="C323">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>1800</v>
+      </c>
+      <c r="C324">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="4"/>
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>1800</v>
+      </c>
+      <c r="C325">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" ref="A326:A366" si="5">A325+1</f>
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>1800</v>
+      </c>
+      <c r="C326">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>1800</v>
+      </c>
+      <c r="C327">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>1800</v>
+      </c>
+      <c r="C328">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>1800</v>
+      </c>
+      <c r="C329">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>1800</v>
+      </c>
+      <c r="C330">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>1800</v>
+      </c>
+      <c r="C331">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>1800</v>
+      </c>
+      <c r="C332">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>1800</v>
+      </c>
+      <c r="C333">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>1800</v>
+      </c>
+      <c r="C334">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>1800</v>
+      </c>
+      <c r="C335">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>1800</v>
+      </c>
+      <c r="C336">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>1800</v>
+      </c>
+      <c r="C337">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1800</v>
+      </c>
+      <c r="C338">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>1800</v>
+      </c>
+      <c r="C339">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>1800</v>
+      </c>
+      <c r="C340">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>1800</v>
+      </c>
+      <c r="C341">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>1800</v>
+      </c>
+      <c r="C342">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>1800</v>
+      </c>
+      <c r="C343">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>1800</v>
+      </c>
+      <c r="C344">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>1800</v>
+      </c>
+      <c r="C345">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>1800</v>
+      </c>
+      <c r="C346">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1800</v>
+      </c>
+      <c r="C347">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>1800</v>
+      </c>
+      <c r="C348">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>1800</v>
+      </c>
+      <c r="C349">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>1800</v>
+      </c>
+      <c r="C350">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>1800</v>
+      </c>
+      <c r="C351">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>1800</v>
+      </c>
+      <c r="C352">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>1800</v>
+      </c>
+      <c r="C353">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>1800</v>
+      </c>
+      <c r="C354">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1800</v>
+      </c>
+      <c r="C355">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>1800</v>
+      </c>
+      <c r="C356">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>1800</v>
+      </c>
+      <c r="C357">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>1800</v>
+      </c>
+      <c r="C358">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>1800</v>
+      </c>
+      <c r="C359">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>1800</v>
+      </c>
+      <c r="C360">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>1800</v>
+      </c>
+      <c r="C361">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>1800</v>
+      </c>
+      <c r="C362">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>1800</v>
+      </c>
+      <c r="C363">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>1800</v>
+      </c>
+      <c r="C364">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>1800</v>
+      </c>
+      <c r="C365">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1800</v>
+      </c>
+      <c r="C366">
+        <v>7100</v>
       </c>
     </row>
   </sheetData>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1ADBB-493A-9F4D-A6C3-DBBE1BECC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3347E1-A9E1-CC46-A7FD-5AFA40EE1C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>21</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -666,7 +666,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>1000000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
         <v>11002</v>
       </c>
       <c r="E2">
-        <v>11002</v>
+        <v>9351.7000000000007</v>
       </c>
       <c r="F2">
         <v>4585.6000000000004</v>
@@ -792,7 +792,7 @@
         <v>105.56</v>
       </c>
       <c r="E3">
-        <v>105.56</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>50.9</v>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,10 +940,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C2">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -951,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C3">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C4">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C5">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -986,10 +986,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C6">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -998,10 +998,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C7">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,10 +1010,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C8">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1022,10 +1022,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C9">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,10 +1034,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C10">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C11">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C12">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,10 +1070,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C13">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,10 +1082,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C14">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C15">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,10 +1106,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C16">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C17">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1130,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C18">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1142,10 +1142,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C19">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,10 +1154,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C20">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,10 +1166,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C21">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1178,10 +1178,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C22">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,10 +1190,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C23">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C24">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C25">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,10 +1226,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C26">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,10 +1238,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C27">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1250,10 +1250,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C28">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1262,10 +1262,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C29">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,10 +1274,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C30">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1286,10 +1286,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C31">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,10 +1298,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C32">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,10 +1310,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C33">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1322,10 +1322,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C34">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,10 +1334,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C35">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1346,10 +1346,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C36">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1358,10 +1358,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C37">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1370,10 +1370,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C38">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1382,10 +1382,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C39">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1394,10 +1394,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C40">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1406,10 +1406,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C41">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1418,10 +1418,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C42">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,10 +1430,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C43">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,10 +1442,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C44">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,10 +1454,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C45">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1466,10 +1466,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C46">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1478,10 +1478,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C47">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1490,10 +1490,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C48">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C49">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1514,10 +1514,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C50">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +1526,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C51">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,10 +1538,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C52">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,10 +1550,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C53">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C54">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1574,10 +1574,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C55">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,10 +1586,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C56">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,10 +1598,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C57">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C58">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1622,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C59">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1634,10 +1634,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C60">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1646,10 +1646,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C61">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1658,10 +1658,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C62">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,10 +1670,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C63">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C64">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C65">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,10 +1706,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C66">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1718,10 +1718,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C67">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1730,10 +1730,10 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C68">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1742,10 +1742,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C69">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,10 +1754,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C70">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1766,10 +1766,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C71">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1778,10 +1778,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C72">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,10 +1790,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C73">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1802,10 +1802,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C74">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C75">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,10 +1826,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C76">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,10 +1838,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C77">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1850,10 +1850,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C78">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,10 +1862,10 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C79">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,10 +1874,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C80">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1886,10 +1886,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C81">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1898,10 +1898,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C82">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1910,10 +1910,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C83">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1922,10 +1922,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C84">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1934,10 +1934,10 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C85">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1946,10 +1946,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C86">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,10 +1958,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C87">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,10 +1970,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C88">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1982,10 +1982,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C89">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,10 +1994,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C90">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2006,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C91">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2018,10 +2018,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C92">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2030,10 +2030,10 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C93">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2042,10 +2042,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C94">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,10 +2054,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C95">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C96">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2078,10 +2078,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C97">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,10 +2090,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C98">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,10 +2102,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C99">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2114,10 +2114,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C100">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,10 +2126,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C101">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +2138,10 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C102">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,10 +2150,10 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C103">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2162,10 +2162,10 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C104">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,10 +2174,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C105">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,10 +2186,10 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C106">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2198,10 +2198,10 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C107">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2210,10 +2210,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C108">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C109">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +2234,10 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C110">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2246,10 +2246,10 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C111">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2258,10 +2258,10 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C112">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,10 +2270,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C113">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,10 +2282,10 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C114">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2294,10 +2294,10 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C115">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,10 +2306,10 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C116">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,10 +2318,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C117">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2330,10 +2330,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C118">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2342,10 +2342,10 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C119">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,10 +2354,10 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C120">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2366,10 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C121">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2378,10 +2378,10 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C122">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2390,10 +2390,10 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C123">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,10 +2402,10 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C124">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,10 +2414,10 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C125">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2426,10 +2426,10 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C126">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2438,10 +2438,10 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C127">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2450,10 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C128">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2462,10 +2462,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C129">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2474,10 +2474,10 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C130">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C131">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,10 +2498,10 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C132">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,10 +2510,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C133">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,10 +2522,10 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C134">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,10 +2534,10 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C135">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,10 +2546,10 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C136">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -2558,10 +2558,10 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C137">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,10 +2570,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C138">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,10 +2582,10 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C139">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2594,10 +2594,10 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C140">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2606,10 +2606,10 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C141">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C142">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2630,10 +2630,10 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C143">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2642,10 +2642,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C144">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2654,10 +2654,10 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C145">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2666,10 +2666,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C146">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,10 +2678,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C147">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2690,10 +2690,10 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C148">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2702,10 +2702,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C149">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,10 +2714,10 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C150">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2726,10 +2726,10 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C151">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2738,10 +2738,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C152">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C153">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2762,10 +2762,10 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C154">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2774,10 +2774,10 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C155">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2786,10 +2786,10 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C156">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,10 +2798,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C157">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +2810,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C158">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2822,10 +2822,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C159">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2834,10 +2834,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C160">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,10 +2846,10 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C161">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2858,10 +2858,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C162">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2870,10 +2870,10 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C163">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,10 +2882,10 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C164">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2894,10 +2894,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C165">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,10 +2906,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C166">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2918,10 +2918,10 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C167">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2930,10 +2930,10 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C168">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,10 +2942,10 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C169">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2954,10 +2954,10 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C170">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,10 +2966,10 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C171">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,10 +2978,10 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C172">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2990,10 +2990,10 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C173">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3002,10 +3002,10 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C174">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,10 +3014,10 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C175">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3026,10 +3026,10 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C176">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3038,10 +3038,10 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C177">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3050,10 +3050,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C178">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3062,10 +3062,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C179">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3074,10 +3074,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C180">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3086,10 +3086,10 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C181">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3098,10 +3098,10 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C182">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,10 +3110,10 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C183">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -3122,10 +3122,10 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C184">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3134,10 +3134,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C185">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,10 +3146,10 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C186">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3158,10 +3158,10 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C187">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,10 +3170,10 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C188">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3182,10 +3182,10 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C189">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3194,10 +3194,10 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C190">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3206,10 +3206,10 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C191">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3218,10 +3218,10 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C192">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3230,10 +3230,10 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C193">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,10 +3242,10 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C194">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3254,10 +3254,10 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C195">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3266,10 +3266,10 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C196">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,10 +3278,10 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C197">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3290,10 +3290,10 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C198">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,10 +3302,10 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C199">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3314,10 +3314,10 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C200">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3326,10 +3326,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C201">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3338,10 +3338,10 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C202">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3350,10 +3350,10 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C203">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3362,10 +3362,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C204">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,10 +3374,10 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C205">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3386,10 +3386,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C206">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3398,10 +3398,10 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C207">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -3410,10 +3410,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C208">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3422,10 +3422,10 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C209">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -3434,10 +3434,10 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C210">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -3446,10 +3446,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C211">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -3458,10 +3458,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C212">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -3470,10 +3470,10 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C213">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -3482,10 +3482,10 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C214">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -3494,10 +3494,10 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C215">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -3506,10 +3506,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C216">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -3518,10 +3518,10 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C217">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -3530,10 +3530,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C218">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,10 +3542,10 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C219">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -3554,10 +3554,10 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C220">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -3566,10 +3566,10 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C221">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -3578,10 +3578,10 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C222">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -3590,10 +3590,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C223">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -3602,10 +3602,10 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C224">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3614,10 +3614,10 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C225">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -3626,10 +3626,10 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C226">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3638,10 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C227">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -3650,10 +3650,10 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C228">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -3662,10 +3662,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C229">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,10 +3674,10 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C230">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -3686,10 +3686,10 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C231">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -3698,10 +3698,10 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C232">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -3710,10 +3710,10 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C233">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,10 +3722,10 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C234">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3734,10 +3734,10 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C235">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3746,10 +3746,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C236">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3758,10 +3758,10 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C237">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3770,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C238">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3782,10 +3782,10 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C239">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3794,10 +3794,10 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C240">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,10 +3806,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C241">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3818,10 +3818,10 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C242">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,10 +3830,10 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C243">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,10 +3842,10 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C244">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3854,10 +3854,10 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C245">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3866,10 +3866,10 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C246">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3878,10 +3878,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C247">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3890,10 +3890,10 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C248">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +3902,10 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C249">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3914,10 +3914,10 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C250">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C251">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,10 +3938,10 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C252">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -3950,10 +3950,10 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C253">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -3962,10 +3962,10 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C254">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -3974,10 +3974,10 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C255">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -3986,10 +3986,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C256">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -3998,10 +3998,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C257">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4010,10 +4010,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C258">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4022,10 +4022,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C259">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,10 +4034,10 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C260">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4046,10 +4046,10 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C261">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -4058,10 +4058,10 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C262">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C263">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4082,10 +4082,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C264">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4094,10 +4094,10 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C265">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,10 +4106,10 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C266">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4118,10 +4118,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C267">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4130,10 +4130,10 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C268">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4142,10 +4142,10 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C269">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4154,10 +4154,10 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C270">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4166,10 +4166,10 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C271">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4178,10 +4178,10 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C272">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -4190,10 +4190,10 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C273">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4202,10 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C274">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -4214,10 +4214,10 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C275">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -4226,10 +4226,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C276">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -4238,10 +4238,10 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C277">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -4250,10 +4250,10 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C278">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4262,10 +4262,10 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C279">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -4274,10 +4274,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C280">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4286,10 +4286,10 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C281">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,10 +4298,10 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C282">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4310,10 +4310,10 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C283">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4322,10 +4322,10 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C284">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,10 +4334,10 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C285">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4346,10 +4346,10 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C286">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4358,10 +4358,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C287">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -4370,10 +4370,10 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C288">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -4382,10 +4382,10 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C289">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -4394,10 +4394,10 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C290">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -4406,10 +4406,10 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C291">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -4418,10 +4418,10 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C292">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +4430,10 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C293">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -4442,10 +4442,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C294">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -4454,10 +4454,10 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C295">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,10 +4466,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C296">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -4478,10 +4478,10 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C297">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -4490,10 +4490,10 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C298">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -4502,10 +4502,10 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C299">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -4514,10 +4514,10 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C300">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,10 +4526,10 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C301">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -4538,10 +4538,10 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C302">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -4550,10 +4550,10 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C303">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,10 +4562,10 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C304">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -4574,10 +4574,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C305">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -4586,10 +4586,10 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C306">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -4598,10 +4598,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C307">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -4610,10 +4610,10 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C308">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -4622,10 +4622,10 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C309">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -4634,10 +4634,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C310">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -4646,10 +4646,10 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C311">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,10 +4658,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C312">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -4670,10 +4670,10 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C313">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -4682,10 +4682,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C314">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,10 +4694,10 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C315">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -4706,10 +4706,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C316">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -4718,10 +4718,10 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C317">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -4730,10 +4730,10 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C318">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -4742,10 +4742,10 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C319">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -4754,10 +4754,10 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C320">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -4766,10 +4766,10 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C321">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -4778,10 +4778,10 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C322">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -4790,10 +4790,10 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C323">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -4802,10 +4802,10 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C324">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -4814,10 +4814,10 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C325">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4826,10 +4826,10 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C326">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4838,10 +4838,10 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C327">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4850,10 +4850,10 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C328">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4862,10 +4862,10 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C329">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4874,10 +4874,10 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C330">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4886,10 +4886,10 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C331">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4898,10 +4898,10 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C332">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -4910,10 +4910,10 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C333">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,10 +4922,10 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C334">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4934,10 +4934,10 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C335">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -4946,10 +4946,10 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C336">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4958,10 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C337">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4970,10 +4970,10 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C338">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4982,10 +4982,10 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C339">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -4994,10 +4994,10 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C340">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -5006,10 +5006,10 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C341">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5018,10 +5018,10 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C342">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -5030,10 +5030,10 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C343">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -5042,10 +5042,10 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C344">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -5054,10 +5054,10 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C345">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -5066,10 +5066,10 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C346">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -5078,10 +5078,10 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C347">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,10 +5090,10 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C348">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -5102,10 +5102,10 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C349">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,10 +5114,10 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C350">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -5126,10 +5126,10 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C351">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -5138,10 +5138,10 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C352">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -5150,10 +5150,10 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C353">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -5162,10 +5162,10 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C354">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -5174,10 +5174,10 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C355">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -5186,10 +5186,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C356">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -5198,10 +5198,10 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C357">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -5210,10 +5210,10 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C358">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,10 +5222,10 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C359">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -5234,10 +5234,10 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C360">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5246,10 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C361">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,10 +5258,10 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C362">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -5270,10 +5270,10 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C363">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -5282,10 +5282,10 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C364">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -5294,10 +5294,10 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C365">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -5306,10 +5306,10 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>1800</v>
+        <v>1412.82</v>
       </c>
       <c r="C366">
-        <v>7100</v>
+        <v>6361.81</v>
       </c>
     </row>
   </sheetData>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3347E1-A9E1-CC46-A7FD-5AFA40EE1C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3F09C-C23A-444E-8F24-01162B433247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,7 +644,8 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <f>110 * 365</f>
+        <v>40150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3F09C-C23A-444E-8F24-01162B433247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFDD51A-FD79-8042-B7A1-53EFFB475DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1880" windowWidth="23680" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19100" yWindow="-600" windowWidth="19020" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+    <sheetView zoomScale="169" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -823,9 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -916,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -926,13 +924,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
     </row>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFDD51A-FD79-8042-B7A1-53EFFB475DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{0DFDD51A-FD79-8042-B7A1-53EFFB475DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B5E9EBE-87B7-4A3C-A66F-2F9BFA55802E}"/>
   <bookViews>
-    <workbookView xWindow="-19100" yWindow="-600" windowWidth="19020" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -246,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,18 +541,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -570,7 +574,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -581,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -592,7 +596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -603,7 +607,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -614,7 +618,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -625,7 +629,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -633,10 +637,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -648,7 +652,7 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -659,7 +663,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -670,7 +674,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -692,24 +696,24 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -744,7 +748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,10 +780,10 @@
         <v>1569.8</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1412.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -811,7 +815,7 @@
         <v>7068.68</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6361.81</v>
       </c>
     </row>
   </sheetData>
@@ -823,19 +827,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -858,7 +862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -881,7 +885,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -914,16 +918,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -934,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,7 +949,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -956,7 +960,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +971,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
@@ -979,7 +983,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>5</v>
@@ -991,7 +995,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1003,7 +1007,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1015,7 +1019,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1027,7 +1031,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1039,7 +1043,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1051,7 +1055,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1063,7 +1067,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1075,7 +1079,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1087,7 +1091,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1099,7 +1103,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1111,7 +1115,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1123,7 +1127,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1135,7 +1139,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1147,7 +1151,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1159,7 +1163,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1171,7 +1175,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1183,7 +1187,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1195,7 +1199,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1207,7 +1211,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1219,7 +1223,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1231,7 +1235,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1243,7 +1247,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1255,7 +1259,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1267,7 +1271,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1279,7 +1283,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1291,7 +1295,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1303,7 +1307,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1315,7 +1319,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1327,7 +1331,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1339,7 +1343,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1351,7 +1355,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1363,7 +1367,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1375,7 +1379,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1387,7 +1391,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1399,7 +1403,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1411,7 +1415,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1423,7 +1427,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1435,7 +1439,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1447,7 +1451,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1459,7 +1463,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1471,7 +1475,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1483,7 +1487,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1495,7 +1499,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1507,7 +1511,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1519,7 +1523,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1531,7 +1535,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1543,7 +1547,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1555,7 +1559,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1567,7 +1571,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1579,7 +1583,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1591,7 +1595,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1603,7 +1607,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1615,7 +1619,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1627,7 +1631,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1639,7 +1643,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1651,7 +1655,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1663,7 +1667,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1675,7 +1679,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1687,7 +1691,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1699,7 +1703,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1711,7 +1715,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1723,7 +1727,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1735,7 +1739,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1747,7 +1751,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>69</v>
@@ -1759,7 +1763,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1771,7 +1775,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1783,7 +1787,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1795,7 +1799,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1807,7 +1811,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1819,7 +1823,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1831,7 +1835,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1843,7 +1847,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1855,7 +1859,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1867,7 +1871,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1879,7 +1883,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1891,7 +1895,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1903,7 +1907,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1915,7 +1919,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1927,7 +1931,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1939,7 +1943,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1951,7 +1955,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1963,7 +1967,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -1975,7 +1979,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1987,7 +1991,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -1999,7 +2003,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2011,7 +2015,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2023,7 +2027,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2035,7 +2039,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2047,7 +2051,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2059,7 +2063,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2071,7 +2075,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2083,7 +2087,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2095,7 +2099,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2107,7 +2111,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2119,7 +2123,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2131,7 +2135,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2143,7 +2147,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2155,7 +2159,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2167,7 +2171,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2179,7 +2183,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2191,7 +2195,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2203,7 +2207,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2215,7 +2219,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2227,7 +2231,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -2239,7 +2243,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -2251,7 +2255,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -2263,7 +2267,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2275,7 +2279,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2287,7 +2291,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2299,7 +2303,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2311,7 +2315,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -2323,7 +2327,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -2335,7 +2339,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -2347,7 +2351,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -2359,7 +2363,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -2371,7 +2375,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2383,7 +2387,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2395,7 +2399,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2407,7 +2411,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -2419,7 +2423,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -2431,7 +2435,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -2443,7 +2447,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -2455,7 +2459,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -2467,7 +2471,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -2479,7 +2483,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -2491,7 +2495,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -2503,7 +2507,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -2515,7 +2519,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" ref="A134:A197" si="2">A133+1</f>
         <v>133</v>
@@ -2527,7 +2531,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -2539,7 +2543,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -2551,7 +2555,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -2563,7 +2567,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -2575,7 +2579,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -2587,7 +2591,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -2599,7 +2603,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -2611,7 +2615,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -2623,7 +2627,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -2635,7 +2639,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -2647,7 +2651,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -2659,7 +2663,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -2671,7 +2675,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2683,7 +2687,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -2695,7 +2699,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -2707,7 +2711,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -2719,7 +2723,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -2731,7 +2735,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -2743,7 +2747,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -2755,7 +2759,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -2767,7 +2771,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -2779,7 +2783,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -2791,7 +2795,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -2803,7 +2807,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -2815,7 +2819,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -2827,7 +2831,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -2839,7 +2843,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -2851,7 +2855,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -2863,7 +2867,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -2875,7 +2879,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -2887,7 +2891,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -2899,7 +2903,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -2911,7 +2915,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -2923,7 +2927,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -2935,7 +2939,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -2947,7 +2951,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -2959,7 +2963,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -2971,7 +2975,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -2983,7 +2987,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -2995,7 +2999,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -3007,7 +3011,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -3019,7 +3023,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -3031,7 +3035,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -3043,7 +3047,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -3055,7 +3059,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -3067,7 +3071,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -3079,7 +3083,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -3091,7 +3095,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -3103,7 +3107,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -3115,7 +3119,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -3127,7 +3131,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -3139,7 +3143,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -3151,7 +3155,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -3163,7 +3167,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -3175,7 +3179,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -3187,7 +3191,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -3199,7 +3203,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -3211,7 +3215,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -3223,7 +3227,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -3235,7 +3239,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -3247,7 +3251,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -3259,7 +3263,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -3271,7 +3275,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -3283,7 +3287,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" ref="A198:A261" si="3">A197+1</f>
         <v>197</v>
@@ -3295,7 +3299,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -3307,7 +3311,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -3319,7 +3323,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -3331,7 +3335,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -3343,7 +3347,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -3355,7 +3359,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -3367,7 +3371,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -3379,7 +3383,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -3391,7 +3395,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -3403,7 +3407,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -3415,7 +3419,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -3427,7 +3431,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -3439,7 +3443,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -3451,7 +3455,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -3463,7 +3467,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -3475,7 +3479,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -3487,7 +3491,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -3499,7 +3503,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -3511,7 +3515,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -3523,7 +3527,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -3535,7 +3539,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -3547,7 +3551,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -3559,7 +3563,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -3571,7 +3575,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -3583,7 +3587,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -3595,7 +3599,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -3607,7 +3611,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -3619,7 +3623,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -3631,7 +3635,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -3643,7 +3647,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -3655,7 +3659,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -3667,7 +3671,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -3679,7 +3683,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -3691,7 +3695,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -3703,7 +3707,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -3715,7 +3719,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -3727,7 +3731,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -3739,7 +3743,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -3751,7 +3755,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -3763,7 +3767,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -3775,7 +3779,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -3787,7 +3791,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -3799,7 +3803,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -3811,7 +3815,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -3823,7 +3827,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -3835,7 +3839,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -3847,7 +3851,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -3859,7 +3863,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -3871,7 +3875,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -3883,7 +3887,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -3895,7 +3899,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -3907,7 +3911,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -3919,7 +3923,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -3931,7 +3935,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -3943,7 +3947,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -3955,7 +3959,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -3967,7 +3971,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -3979,7 +3983,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -3991,7 +3995,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -4003,7 +4007,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -4015,7 +4019,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -4027,7 +4031,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -4039,7 +4043,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -4051,7 +4055,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" ref="A262:A325" si="4">A261+1</f>
         <v>261</v>
@@ -4063,7 +4067,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -4075,7 +4079,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -4087,7 +4091,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -4099,7 +4103,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -4111,7 +4115,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -4123,7 +4127,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -4135,7 +4139,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -4147,7 +4151,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -4159,7 +4163,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -4171,7 +4175,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -4183,7 +4187,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -4195,7 +4199,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -4207,7 +4211,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -4219,7 +4223,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -4231,7 +4235,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -4243,7 +4247,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -4255,7 +4259,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -4267,7 +4271,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -4279,7 +4283,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -4291,7 +4295,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -4303,7 +4307,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -4315,7 +4319,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -4327,7 +4331,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -4339,7 +4343,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -4351,7 +4355,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -4363,7 +4367,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -4375,7 +4379,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -4387,7 +4391,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -4399,7 +4403,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -4411,7 +4415,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -4423,7 +4427,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -4435,7 +4439,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -4447,7 +4451,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -4459,7 +4463,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -4471,7 +4475,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -4483,7 +4487,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -4495,7 +4499,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -4507,7 +4511,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -4519,7 +4523,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -4531,7 +4535,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -4543,7 +4547,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -4555,7 +4559,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -4567,7 +4571,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -4579,7 +4583,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -4591,7 +4595,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -4603,7 +4607,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -4615,7 +4619,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -4627,7 +4631,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -4639,7 +4643,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -4651,7 +4655,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -4663,7 +4667,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -4675,7 +4679,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -4687,7 +4691,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -4699,7 +4703,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -4711,7 +4715,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -4723,7 +4727,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -4735,7 +4739,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -4747,7 +4751,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -4759,7 +4763,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -4771,7 +4775,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -4783,7 +4787,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -4795,7 +4799,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="4"/>
         <v>323</v>
@@ -4807,7 +4811,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" si="4"/>
         <v>324</v>
@@ -4819,7 +4823,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" ref="A326:A366" si="5">A325+1</f>
         <v>325</v>
@@ -4831,7 +4835,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -4843,7 +4847,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -4855,7 +4859,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -4867,7 +4871,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -4879,7 +4883,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -4891,7 +4895,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -4903,7 +4907,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -4915,7 +4919,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -4927,7 +4931,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -4939,7 +4943,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -4951,7 +4955,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -4963,7 +4967,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -4975,7 +4979,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -4987,7 +4991,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -4999,7 +5003,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -5011,7 +5015,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -5023,7 +5027,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -5035,7 +5039,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -5047,7 +5051,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -5059,7 +5063,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -5071,7 +5075,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -5083,7 +5087,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -5095,7 +5099,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -5107,7 +5111,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -5119,7 +5123,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -5131,7 +5135,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -5143,7 +5147,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -5155,7 +5159,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -5167,7 +5171,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -5179,7 +5183,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -5191,7 +5195,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -5203,7 +5207,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -5215,7 +5219,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -5227,7 +5231,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -5239,7 +5243,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -5251,7 +5255,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -5263,7 +5267,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -5275,7 +5279,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -5287,7 +5291,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -5299,7 +5303,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{0DFDD51A-FD79-8042-B7A1-53EFFB475DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B5E9EBE-87B7-4A3C-A66F-2F9BFA55802E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712E021-E320-9B41-8B4D-D14A5E16D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="19580" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Parámetro</t>
   </si>
@@ -167,7 +167,13 @@
     <t>IM0 (ton)</t>
   </si>
   <si>
-    <t>Día/Producto</t>
+    <t>Prod1</t>
+  </si>
+  <si>
+    <t>Prod2</t>
+  </si>
+  <si>
+    <t>Dia</t>
   </si>
 </sst>
 </file>
@@ -226,10 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,10 +255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,18 +546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,88 +568,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5">
         <v>6000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6">
         <v>4290000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7">
         <v>5.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8">
         <v>1500000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9">
@@ -652,33 +657,33 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11">
         <v>25000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12">
@@ -696,24 +701,24 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -748,7 +753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -783,7 +788,7 @@
         <v>1412.82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -829,17 +834,17 @@
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -862,7 +867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -885,7 +890,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -918,27 +923,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -949,7 +954,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -960,7 +965,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -971,7 +976,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
@@ -983,7 +988,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>5</v>
@@ -995,7 +1000,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1007,7 +1012,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1019,7 +1024,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1031,7 +1036,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1043,7 +1048,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1055,7 +1060,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1067,7 +1072,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1079,7 +1084,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1091,7 +1096,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1103,7 +1108,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1115,7 +1120,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1127,7 +1132,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1139,7 +1144,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1151,7 +1156,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1163,7 +1168,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1175,7 +1180,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1187,7 +1192,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1199,7 +1204,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1211,7 +1216,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1223,7 +1228,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1235,7 +1240,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1247,7 +1252,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1259,7 +1264,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1271,7 +1276,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1283,7 +1288,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1295,7 +1300,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1307,7 +1312,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1319,7 +1324,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1331,7 +1336,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1343,7 +1348,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1355,7 +1360,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1367,7 +1372,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1379,7 +1384,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1391,7 +1396,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1403,7 +1408,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1415,7 +1420,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1427,7 +1432,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1439,7 +1444,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1451,7 +1456,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1463,7 +1468,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1475,7 +1480,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1487,7 +1492,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1499,7 +1504,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1511,7 +1516,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1523,7 +1528,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1535,7 +1540,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1547,7 +1552,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1559,7 +1564,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1571,7 +1576,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1583,7 +1588,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1595,7 +1600,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1607,7 +1612,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1619,7 +1624,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1631,7 +1636,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1643,7 +1648,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1655,7 +1660,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1667,7 +1672,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1679,7 +1684,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1691,7 +1696,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1703,7 +1708,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1715,7 +1720,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1727,7 +1732,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1739,7 +1744,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1751,7 +1756,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>69</v>
@@ -1763,7 +1768,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1775,7 +1780,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1787,7 +1792,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1799,7 +1804,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1811,7 +1816,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1823,7 +1828,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1835,7 +1840,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1847,7 +1852,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1859,7 +1864,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1871,7 +1876,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1883,7 +1888,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1895,7 +1900,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1907,7 +1912,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1919,7 +1924,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1931,7 +1936,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1943,7 +1948,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1955,7 +1960,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1967,7 +1972,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -1979,7 +1984,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -1991,7 +1996,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2003,7 +2008,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2015,7 +2020,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2027,7 +2032,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2039,7 +2044,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2051,7 +2056,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2063,7 +2068,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2075,7 +2080,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2087,7 +2092,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2099,7 +2104,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2111,7 +2116,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2123,7 +2128,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2135,7 +2140,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2147,7 +2152,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2159,7 +2164,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2171,7 +2176,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2183,7 +2188,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2195,7 +2200,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2207,7 +2212,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2219,7 +2224,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2231,7 +2236,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -2243,7 +2248,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -2255,7 +2260,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -2267,7 +2272,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2279,7 +2284,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2291,7 +2296,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2303,7 +2308,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2315,7 +2320,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -2327,7 +2332,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -2339,7 +2344,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -2351,7 +2356,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -2363,7 +2368,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -2375,7 +2380,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2387,7 +2392,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2399,7 +2404,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2411,7 +2416,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -2423,7 +2428,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -2435,7 +2440,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -2447,7 +2452,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -2459,7 +2464,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -2471,7 +2476,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -2483,7 +2488,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -2495,7 +2500,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -2507,7 +2512,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -2519,7 +2524,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" ref="A134:A197" si="2">A133+1</f>
         <v>133</v>
@@ -2531,7 +2536,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -2543,7 +2548,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -2555,7 +2560,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -2567,7 +2572,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -2579,7 +2584,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -2591,7 +2596,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -2603,7 +2608,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -2615,7 +2620,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -2627,7 +2632,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -2639,7 +2644,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -2651,7 +2656,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -2663,7 +2668,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -2675,7 +2680,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2687,7 +2692,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -2699,7 +2704,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -2711,7 +2716,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -2723,7 +2728,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -2735,7 +2740,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -2747,7 +2752,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -2759,7 +2764,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -2771,7 +2776,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -2783,7 +2788,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -2795,7 +2800,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -2807,7 +2812,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -2819,7 +2824,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -2831,7 +2836,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -2843,7 +2848,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -2855,7 +2860,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -2867,7 +2872,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -2879,7 +2884,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -2891,7 +2896,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -2903,7 +2908,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -2915,7 +2920,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -2927,7 +2932,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -2939,7 +2944,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -2951,7 +2956,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -2963,7 +2968,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -2975,7 +2980,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -2987,7 +2992,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -2999,7 +3004,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -3011,7 +3016,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -3023,7 +3028,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -3035,7 +3040,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -3047,7 +3052,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -3059,7 +3064,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -3071,7 +3076,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -3083,7 +3088,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -3095,7 +3100,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -3107,7 +3112,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -3119,7 +3124,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -3131,7 +3136,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -3143,7 +3148,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -3155,7 +3160,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -3167,7 +3172,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -3179,7 +3184,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -3191,7 +3196,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -3203,7 +3208,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -3215,7 +3220,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -3227,7 +3232,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -3239,7 +3244,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -3251,7 +3256,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -3263,7 +3268,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -3275,7 +3280,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -3287,7 +3292,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" ref="A198:A261" si="3">A197+1</f>
         <v>197</v>
@@ -3299,7 +3304,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -3311,7 +3316,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -3323,7 +3328,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -3335,7 +3340,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -3347,7 +3352,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -3359,7 +3364,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -3371,7 +3376,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -3383,7 +3388,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -3395,7 +3400,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -3407,7 +3412,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -3419,7 +3424,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -3431,7 +3436,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -3443,7 +3448,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -3455,7 +3460,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -3467,7 +3472,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -3479,7 +3484,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -3491,7 +3496,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -3503,7 +3508,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -3515,7 +3520,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -3527,7 +3532,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -3539,7 +3544,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -3551,7 +3556,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -3563,7 +3568,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -3575,7 +3580,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -3587,7 +3592,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -3599,7 +3604,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -3611,7 +3616,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -3623,7 +3628,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -3635,7 +3640,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -3647,7 +3652,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -3659,7 +3664,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -3671,7 +3676,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -3683,7 +3688,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -3695,7 +3700,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -3707,7 +3712,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -3719,7 +3724,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -3731,7 +3736,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -3743,7 +3748,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -3755,7 +3760,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -3767,7 +3772,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -3779,7 +3784,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -3791,7 +3796,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -3803,7 +3808,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -3815,7 +3820,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -3827,7 +3832,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -3839,7 +3844,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -3851,7 +3856,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -3863,7 +3868,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -3875,7 +3880,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -3887,7 +3892,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -3899,7 +3904,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -3911,7 +3916,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -3923,7 +3928,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -3935,7 +3940,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -3947,7 +3952,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -3959,7 +3964,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -3971,7 +3976,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -3983,7 +3988,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -3995,7 +4000,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -4007,7 +4012,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -4019,7 +4024,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -4031,7 +4036,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -4043,7 +4048,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -4055,7 +4060,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" ref="A262:A325" si="4">A261+1</f>
         <v>261</v>
@@ -4067,7 +4072,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -4079,7 +4084,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -4091,7 +4096,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -4103,7 +4108,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -4115,7 +4120,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -4127,7 +4132,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -4139,7 +4144,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -4151,7 +4156,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -4163,7 +4168,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -4175,7 +4180,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -4187,7 +4192,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -4199,7 +4204,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -4211,7 +4216,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -4223,7 +4228,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -4235,7 +4240,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -4247,7 +4252,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -4259,7 +4264,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -4271,7 +4276,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -4283,7 +4288,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -4295,7 +4300,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -4307,7 +4312,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -4319,7 +4324,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -4331,7 +4336,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -4343,7 +4348,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -4355,7 +4360,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -4367,7 +4372,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -4379,7 +4384,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -4391,7 +4396,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -4403,7 +4408,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -4415,7 +4420,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -4427,7 +4432,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -4439,7 +4444,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -4451,7 +4456,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -4463,7 +4468,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -4475,7 +4480,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -4487,7 +4492,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -4499,7 +4504,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -4511,7 +4516,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -4523,7 +4528,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -4535,7 +4540,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -4547,7 +4552,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -4559,7 +4564,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -4571,7 +4576,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -4583,7 +4588,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -4595,7 +4600,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -4607,7 +4612,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -4619,7 +4624,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -4631,7 +4636,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -4643,7 +4648,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -4655,7 +4660,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -4667,7 +4672,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -4679,7 +4684,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -4691,7 +4696,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -4703,7 +4708,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -4715,7 +4720,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -4727,7 +4732,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -4739,7 +4744,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -4751,7 +4756,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -4763,7 +4768,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -4775,7 +4780,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -4787,7 +4792,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -4799,7 +4804,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <f t="shared" si="4"/>
         <v>323</v>
@@ -4811,7 +4816,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <f t="shared" si="4"/>
         <v>324</v>
@@ -4823,7 +4828,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <f t="shared" ref="A326:A366" si="5">A325+1</f>
         <v>325</v>
@@ -4835,7 +4840,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -4847,7 +4852,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -4859,7 +4864,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -4871,7 +4876,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -4883,7 +4888,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -4895,7 +4900,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -4907,7 +4912,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -4919,7 +4924,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -4931,7 +4936,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -4943,7 +4948,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -4955,7 +4960,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -4967,7 +4972,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -4979,7 +4984,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -4991,7 +4996,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -5003,7 +5008,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -5015,7 +5020,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -5027,7 +5032,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -5039,7 +5044,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -5051,7 +5056,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -5063,7 +5068,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -5075,7 +5080,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -5087,7 +5092,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -5099,7 +5104,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -5111,7 +5116,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -5123,7 +5128,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -5135,7 +5140,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -5147,7 +5152,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -5159,7 +5164,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -5171,7 +5176,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -5183,7 +5188,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -5195,7 +5200,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -5207,7 +5212,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -5219,7 +5224,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -5231,7 +5236,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -5243,7 +5248,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -5255,7 +5260,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -5267,7 +5272,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -5279,7 +5284,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -5291,7 +5296,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -5303,7 +5308,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712E021-E320-9B41-8B4D-D14A5E16D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB7FD7C-F66C-2342-909B-1BBDFFB43C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="19580" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1760" windowWidth="19580" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Parámetro</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Umbral diario de emisiones (ton SO2/día)</t>
   </si>
   <si>
-    <t>Multa por exceso (US$/ton SO2)</t>
-  </si>
-  <si>
     <t>Máximo inventario (ton)</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>I0 (m³)</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Cp (US$/ton)</t>
   </si>
   <si>
@@ -174,6 +168,18 @@
   </si>
   <si>
     <t>Dia</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Multa variable por exceso (US$/ton SO2)</t>
+  </si>
+  <si>
+    <t>Multa fija por exceso (US$)</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,10 +665,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>27000</v>
@@ -670,23 +676,34 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
         <v>1000000</v>
       </c>
     </row>
@@ -720,37 +737,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -846,25 +863,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -923,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97F02AC-72CF-6B4D-A90E-C85E1407B4E9}">
   <dimension ref="A1:C366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -934,13 +951,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB7FD7C-F66C-2342-909B-1BBDFFB43C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="1760" windowWidth="19580" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Parámetro</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Volumen inicial del embalse (m³)</t>
-  </si>
-  <si>
-    <t>Costo agua externa (US$/m³)</t>
   </si>
   <si>
     <t>Presupuesto diario agua externa (US$/día)</t>
@@ -180,6 +177,15 @@
   </si>
   <si>
     <t>Multa fija por exceso (US$)</t>
+  </si>
+  <si>
+    <t>Pf</t>
+  </si>
+  <si>
+    <t>Costo de bombear agua externa (US$/m³)</t>
+  </si>
+  <si>
+    <t>Costo fijo de uso de agua externa (US$)</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>5.45</v>
@@ -642,36 +648,36 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>1500000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <f>110 * 365</f>
         <v>40150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>27000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,31 +685,42 @@
         <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>1000000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <v>25000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
         <v>1000000</v>
       </c>
     </row>
@@ -737,37 +754,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -863,25 +880,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -951,13 +968,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nacho/Folders/Ingenieria/Optimización/Gurobi-Opti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FEA2E25-A9DD-4B84-827C-4573A33C358B}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1760" windowWidth="19580" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -267,6 +267,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,18 +562,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +595,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -624,7 +628,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,7 +639,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +650,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -654,10 +658,10 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>390550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -668,7 +672,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,7 +684,7 @@
         <v>40150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -691,7 +695,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -702,7 +706,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +717,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -735,24 +739,24 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -787,7 +791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -822,7 +826,7 @@
         <v>1412.82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -868,17 +872,17 @@
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -901,7 +905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -924,7 +928,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,12 +965,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -977,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -988,7 +992,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4+1</f>
         <v>4</v>
@@ -1022,7 +1026,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>5</v>
@@ -1034,7 +1038,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1046,7 +1050,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1058,7 +1062,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1070,7 +1074,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1082,7 +1086,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1094,7 +1098,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1106,7 +1110,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1118,7 +1122,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1130,7 +1134,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1142,7 +1146,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1154,7 +1158,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1166,7 +1170,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1178,7 +1182,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1190,7 +1194,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1202,7 +1206,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1214,7 +1218,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1226,7 +1230,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1238,7 +1242,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1250,7 +1254,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1262,7 +1266,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1274,7 +1278,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1286,7 +1290,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1298,7 +1302,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1310,7 +1314,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1322,7 +1326,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1334,7 +1338,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1346,7 +1350,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1358,7 +1362,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1370,7 +1374,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1382,7 +1386,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1394,7 +1398,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1406,7 +1410,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1418,7 +1422,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1430,7 +1434,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1442,7 +1446,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1454,7 +1458,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1466,7 +1470,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1478,7 +1482,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1490,7 +1494,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1502,7 +1506,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1514,7 +1518,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1526,7 +1530,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1538,7 +1542,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1550,7 +1554,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1562,7 +1566,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1574,7 +1578,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1586,7 +1590,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1598,7 +1602,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1610,7 +1614,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1622,7 +1626,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1634,7 +1638,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1646,7 +1650,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1658,7 +1662,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1670,7 +1674,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1682,7 +1686,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1694,7 +1698,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1706,7 +1710,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1718,7 +1722,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1730,7 +1734,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1742,7 +1746,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1754,7 +1758,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1766,7 +1770,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1778,7 +1782,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -1790,7 +1794,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" ref="A70:A133" si="1">A69+1</f>
         <v>69</v>
@@ -1802,7 +1806,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1814,7 +1818,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1826,7 +1830,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1838,7 +1842,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1850,7 +1854,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1862,7 +1866,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1874,7 +1878,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -1886,7 +1890,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1898,7 +1902,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1910,7 +1914,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1922,7 +1926,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -1934,7 +1938,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1946,7 +1950,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -1958,7 +1962,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -1970,7 +1974,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1982,7 +1986,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1994,7 +1998,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2006,7 +2010,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2018,7 +2022,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2030,7 +2034,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2042,7 +2046,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2054,7 +2058,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2066,7 +2070,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2078,7 +2082,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2090,7 +2094,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2102,7 +2106,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2114,7 +2118,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2126,7 +2130,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2138,7 +2142,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2150,7 +2154,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2162,7 +2166,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2174,7 +2178,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2186,7 +2190,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2198,7 +2202,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2210,7 +2214,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2222,7 +2226,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2234,7 +2238,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2246,7 +2250,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2258,7 +2262,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2270,7 +2274,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -2282,7 +2286,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -2294,7 +2298,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -2306,7 +2310,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2318,7 +2322,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2330,7 +2334,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2342,7 +2346,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2354,7 +2358,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -2366,7 +2370,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -2378,7 +2382,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -2390,7 +2394,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -2402,7 +2406,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -2414,7 +2418,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2426,7 +2430,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2438,7 +2442,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2450,7 +2454,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -2462,7 +2466,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -2474,7 +2478,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -2486,7 +2490,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -2498,7 +2502,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -2510,7 +2514,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -2522,7 +2526,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -2534,7 +2538,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>131</v>
@@ -2546,7 +2550,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>132</v>
@@ -2558,7 +2562,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" ref="A134:A197" si="2">A133+1</f>
         <v>133</v>
@@ -2570,7 +2574,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -2582,7 +2586,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -2594,7 +2598,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -2606,7 +2610,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -2618,7 +2622,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -2630,7 +2634,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -2642,7 +2646,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -2654,7 +2658,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -2666,7 +2670,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -2678,7 +2682,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -2690,7 +2694,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -2702,7 +2706,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -2714,7 +2718,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2726,7 +2730,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -2738,7 +2742,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -2750,7 +2754,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -2762,7 +2766,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -2774,7 +2778,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -2786,7 +2790,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -2798,7 +2802,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -2810,7 +2814,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -2822,7 +2826,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -2834,7 +2838,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -2846,7 +2850,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -2858,7 +2862,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -2870,7 +2874,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -2882,7 +2886,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -2894,7 +2898,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -2906,7 +2910,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -2918,7 +2922,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -2930,7 +2934,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -2942,7 +2946,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -2954,7 +2958,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -2966,7 +2970,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -2978,7 +2982,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -2990,7 +2994,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -3002,7 +3006,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -3014,7 +3018,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -3026,7 +3030,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -3038,7 +3042,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -3050,7 +3054,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -3062,7 +3066,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -3074,7 +3078,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -3086,7 +3090,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -3098,7 +3102,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -3110,7 +3114,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -3122,7 +3126,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -3134,7 +3138,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -3146,7 +3150,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -3158,7 +3162,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -3170,7 +3174,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -3182,7 +3186,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -3194,7 +3198,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -3206,7 +3210,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -3218,7 +3222,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -3230,7 +3234,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -3242,7 +3246,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -3254,7 +3258,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -3266,7 +3270,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -3278,7 +3282,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -3290,7 +3294,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -3302,7 +3306,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -3314,7 +3318,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -3326,7 +3330,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" ref="A198:A261" si="3">A197+1</f>
         <v>197</v>
@@ -3338,7 +3342,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -3350,7 +3354,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -3362,7 +3366,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -3374,7 +3378,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -3386,7 +3390,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -3398,7 +3402,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -3410,7 +3414,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -3422,7 +3426,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -3434,7 +3438,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -3446,7 +3450,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -3458,7 +3462,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -3470,7 +3474,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -3482,7 +3486,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -3494,7 +3498,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -3506,7 +3510,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -3518,7 +3522,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -3530,7 +3534,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -3542,7 +3546,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -3554,7 +3558,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -3566,7 +3570,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -3578,7 +3582,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -3590,7 +3594,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -3602,7 +3606,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -3614,7 +3618,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -3626,7 +3630,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -3638,7 +3642,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -3650,7 +3654,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -3662,7 +3666,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -3674,7 +3678,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -3686,7 +3690,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -3698,7 +3702,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -3710,7 +3714,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -3722,7 +3726,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -3734,7 +3738,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -3746,7 +3750,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -3758,7 +3762,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -3770,7 +3774,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -3782,7 +3786,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -3794,7 +3798,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -3806,7 +3810,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -3818,7 +3822,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -3830,7 +3834,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -3842,7 +3846,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -3854,7 +3858,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -3866,7 +3870,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -3878,7 +3882,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -3890,7 +3894,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -3902,7 +3906,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -3914,7 +3918,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -3926,7 +3930,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -3938,7 +3942,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -3950,7 +3954,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -3962,7 +3966,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -3974,7 +3978,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -3986,7 +3990,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -3998,7 +4002,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -4010,7 +4014,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -4022,7 +4026,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -4034,7 +4038,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -4046,7 +4050,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -4058,7 +4062,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -4070,7 +4074,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="3"/>
         <v>259</v>
@@ -4082,7 +4086,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -4094,7 +4098,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" ref="A262:A325" si="4">A261+1</f>
         <v>261</v>
@@ -4106,7 +4110,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -4118,7 +4122,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -4130,7 +4134,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -4142,7 +4146,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -4154,7 +4158,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -4166,7 +4170,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -4178,7 +4182,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -4190,7 +4194,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -4202,7 +4206,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -4214,7 +4218,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -4226,7 +4230,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -4238,7 +4242,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -4250,7 +4254,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -4262,7 +4266,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -4274,7 +4278,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -4286,7 +4290,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -4298,7 +4302,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -4310,7 +4314,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -4322,7 +4326,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -4334,7 +4338,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -4346,7 +4350,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -4358,7 +4362,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -4370,7 +4374,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -4382,7 +4386,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -4394,7 +4398,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -4406,7 +4410,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -4418,7 +4422,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -4430,7 +4434,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -4442,7 +4446,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -4454,7 +4458,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -4466,7 +4470,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -4478,7 +4482,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -4490,7 +4494,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -4502,7 +4506,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -4514,7 +4518,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -4526,7 +4530,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -4538,7 +4542,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -4550,7 +4554,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -4562,7 +4566,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -4574,7 +4578,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -4586,7 +4590,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -4598,7 +4602,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -4610,7 +4614,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -4622,7 +4626,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -4634,7 +4638,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -4646,7 +4650,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -4658,7 +4662,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -4670,7 +4674,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -4682,7 +4686,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -4694,7 +4698,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -4706,7 +4710,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -4718,7 +4722,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -4730,7 +4734,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -4742,7 +4746,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -4754,7 +4758,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -4766,7 +4770,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -4778,7 +4782,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -4790,7 +4794,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -4802,7 +4806,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -4814,7 +4818,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -4826,7 +4830,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -4838,7 +4842,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="4"/>
         <v>323</v>
@@ -4850,7 +4854,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" si="4"/>
         <v>324</v>
@@ -4862,7 +4866,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" ref="A326:A366" si="5">A325+1</f>
         <v>325</v>
@@ -4874,7 +4878,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -4886,7 +4890,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -4898,7 +4902,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -4910,7 +4914,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -4922,7 +4926,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -4934,7 +4938,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -4946,7 +4950,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -4958,7 +4962,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -4970,7 +4974,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -4982,7 +4986,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -4994,7 +4998,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -5006,7 +5010,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -5018,7 +5022,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -5030,7 +5034,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -5042,7 +5046,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -5054,7 +5058,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -5066,7 +5070,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -5078,7 +5082,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -5090,7 +5094,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -5102,7 +5106,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -5114,7 +5118,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -5126,7 +5130,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -5138,7 +5142,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -5150,7 +5154,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -5162,7 +5166,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -5174,7 +5178,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -5186,7 +5190,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -5198,7 +5202,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -5210,7 +5214,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -5222,7 +5226,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -5234,7 +5238,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -5246,7 +5250,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -5258,7 +5262,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -5270,7 +5274,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -5282,7 +5286,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -5294,7 +5298,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -5306,7 +5310,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -5318,7 +5322,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -5330,7 +5334,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -5342,7 +5346,7 @@
         <v>6361.81</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FEA2E25-A9DD-4B84-827C-4573A33C358B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCD44D1-5B5C-4FF8-AE79-F678A397FC29}"/>
   <bookViews>
     <workbookView xWindow="2964" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>390550</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCD44D1-5B5C-4FF8-AE79-F678A397FC29}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99B46F2-4F2C-46E4-AE76-101B1EC6F1D4}"/>
   <bookViews>
     <workbookView xWindow="2964" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Parámetro</t>
   </si>
@@ -187,6 +187,12 @@
   <si>
     <t>Costo fijo de uso de agua externa (US$)</t>
   </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>beneficio recicular agua</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,16 +246,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -560,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +681,7 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>972</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -669,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,6 +749,17 @@
       </c>
       <c r="C14">
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -910,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
         <v>136272</v>
@@ -933,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
         <v>136272</v>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99B46F2-4F2C-46E4-AE76-101B1EC6F1D4}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E553D830-1D88-4BB2-A576-87FEB180966C}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2484" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="3132" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
     <t>Costo fijo de uso de agua externa (US$)</t>
   </si>
   <si>
-    <t>cw</t>
+    <t>beneficio recicular agua</t>
   </si>
   <si>
-    <t>beneficio recicular agua</t>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -692,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,13 +753,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="C15">
-        <v>10000</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <v>136272</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <v>136272</v>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E553D830-1D88-4BB2-A576-87FEB180966C}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB878B9-D9EF-4604-A746-99F3EFEB7083}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3132" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="3024" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A3" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB878B9-D9EF-4604-A746-99F3EFEB7083}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="3024" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="3024" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="136" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -904,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB878B9-D9EF-4604-A746-99F3EFEB7083}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5D41CE-0D34-45F9-91C7-18C5FAD61FA3}"/>
   <bookViews>
     <workbookView xWindow="2328" yWindow="3024" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>beneficio recicular agua</t>
   </si>
   <si>
-    <t>C</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/parametros_reales.xlsx
+++ b/parametros_reales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/carlos_raineri_uc_cl/Documents/semestre 6/opti/PROYECTO/Gurobi-Opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5D41CE-0D34-45F9-91C7-18C5FAD61FA3}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{88D5B4BE-CDA4-CC4B-9075-1DC7AD675727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD59E0A-697F-4BF4-8328-70BABA886FEC}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="3024" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3588" yWindow="1812" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalares" sheetId="1" r:id="rId1"/>
@@ -585,15 +585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A3" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +958,7 @@
         <v>1363690000</v>
       </c>
       <c r="F2">
-        <v>32.700000000000003</v>
+        <v>30.7</v>
       </c>
       <c r="G2">
         <v>69.900000000000006</v>
@@ -998,7 +998,7 @@
   <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
